--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/CrepeErase/deluxe20offtv.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/CrepeErase/deluxe20offtv.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23621"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{6B90B4BA-C681-4C5B-B382-2FD2FA2CBAA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EFC19D02-371E-43A7-A84A-C2AB91A87F12}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{6B90B4BA-C681-4C5B-B382-2FD2FA2CBAA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C30E8390-6752-4BF7-84D8-893358E8BD63}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,7 +473,7 @@
     <t>Pre-Purchase Entry Shipping</t>
   </si>
   <si>
-    <t>Pre-Purchase Entry Renewal Plan</t>
+    <t>Pre-Purchase Entry Renewal Plan</t>
   </si>
   <si>
     <t>RCSA3ED</t>
@@ -1025,6 +1025,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1033,15 +1042,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1360,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1570,13 +1570,13 @@
       </c>
     </row>
     <row r="15" spans="1:9" s="33" customFormat="1" ht="15.75">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="50"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
     </row>
     <row r="16" spans="1:9" s="33" customFormat="1" ht="15.75">
       <c r="A16" s="7" t="s">
@@ -2265,13 +2265,13 @@
       </c>
     </row>
     <row r="60" spans="1:5" s="41" customFormat="1" ht="15.75">
-      <c r="A60" s="45" t="s">
+      <c r="A60" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="46"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="46"/>
-      <c r="E60" s="47"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="50"/>
     </row>
     <row r="61" spans="1:5" ht="15.75">
       <c r="A61" s="15" t="s">
@@ -2990,18 +2990,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3170,11 +3170,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFE8D63D-2E81-4339-837F-7F18C9494163}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE300D08-B0CB-4DA8-9AA7-F031ED0BA7B6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE300D08-B0CB-4DA8-9AA7-F031ED0BA7B6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFE8D63D-2E81-4339-837F-7F18C9494163}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
